--- a/data.xlsx
+++ b/data.xlsx
@@ -8,19 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Рабочий стол\рабочий стол\Всякая хрень\ncfu\Дипломка\PythonTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEBBA75-7941-4D42-A588-652D1BC25F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EB99D4-EF55-4B6E-BA8E-280841E3AB8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1452" yWindow="948" windowWidth="20832" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+  <si>
+    <t>№</t>
+  </si>
   <si>
     <t>Стратиграфическое подразделение</t>
   </si>
@@ -399,57 +413,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:M12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.44140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="3"/>
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -459,10 +473,10 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
+      <c r="F2" s="3"/>
       <c r="G2" t="s">
         <v>10</v>
       </c>
@@ -487,268 +501,315 @@
       <c r="N2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C3">
+      <c r="O2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>30</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.26</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C4">
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f t="shared" ref="A4:A12" si="0">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="D4">
         <v>30</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>232</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.26</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.02</v>
       </c>
-      <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
-      <c r="N4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C5">
+      <c r="N4"/>
+      <c r="O4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D5">
         <v>232</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>333</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>2.1399999999999999E-2</v>
       </c>
-      <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C6">
+      <c r="N5"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D6">
         <v>333</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>384</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.59</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2.4E-2</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>2.01E-2</v>
       </c>
-      <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C7">
+      <c r="N6"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D7">
         <v>384</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>434</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.65</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>2.4E-2</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>2.0299999999999999E-2</v>
       </c>
-      <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
-      <c r="N7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C8">
+      <c r="N7"/>
+      <c r="O7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D8">
         <v>434</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>494</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.86</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>2.4E-2</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>2.1499999999999998E-2</v>
       </c>
-      <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
-      <c r="N8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C9">
+      <c r="N8"/>
+      <c r="O8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D9">
         <v>494</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>674</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.87</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>2.4E-2</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>2.0899999999999998E-2</v>
       </c>
-      <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C10">
+      <c r="N9"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D10">
         <v>674</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>939</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>2.4E-2</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C11">
+      <c r="N10"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D11">
         <v>939</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>996</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1.02</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>2.4E-2</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.01</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>2.24E-2</v>
       </c>
-      <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C12">
+      <c r="N11"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D12">
         <v>996</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1064</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1.02</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>2.4E-2</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.01</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
+      <c r="N12"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
